--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.297938333333333</v>
+        <v>0.09405766666666666</v>
       </c>
       <c r="H2">
-        <v>3.893815</v>
+        <v>0.282173</v>
       </c>
       <c r="I2">
-        <v>0.7789555578138916</v>
+        <v>0.203423347045177</v>
       </c>
       <c r="J2">
-        <v>0.7789555578138916</v>
+        <v>0.203423347045177</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.380202</v>
+        <v>0.0002143333333333333</v>
       </c>
       <c r="N2">
-        <v>1.140606</v>
+        <v>0.000643</v>
       </c>
       <c r="O2">
-        <v>0.9924725279028103</v>
+        <v>0.0005591790590486129</v>
       </c>
       <c r="P2">
-        <v>0.9924725279028103</v>
+        <v>0.0005591790590486129</v>
       </c>
       <c r="Q2">
-        <v>0.49347875021</v>
+        <v>2.015969322222222E-05</v>
       </c>
       <c r="R2">
-        <v>4.44130875189</v>
+        <v>0.000181437239</v>
       </c>
       <c r="S2">
-        <v>0.7730919915874966</v>
+        <v>0.0001137500757892415</v>
       </c>
       <c r="T2">
-        <v>0.7730919915874966</v>
+        <v>0.0001137500757892415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.297938333333333</v>
+        <v>0.09405766666666666</v>
       </c>
       <c r="H3">
-        <v>3.893815</v>
+        <v>0.282173</v>
       </c>
       <c r="I3">
-        <v>0.7789555578138916</v>
+        <v>0.203423347045177</v>
       </c>
       <c r="J3">
-        <v>0.7789555578138916</v>
+        <v>0.203423347045177</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.002883666666666667</v>
+        <v>0.380202</v>
       </c>
       <c r="N3">
-        <v>0.008651000000000001</v>
+        <v>1.140606</v>
       </c>
       <c r="O3">
-        <v>0.00752747209718975</v>
+        <v>0.991917558048526</v>
       </c>
       <c r="P3">
-        <v>0.007527472097189751</v>
+        <v>0.991917558048526</v>
       </c>
       <c r="Q3">
-        <v>0.003742821507222222</v>
+        <v>0.035760912982</v>
       </c>
       <c r="R3">
-        <v>0.03368539356500001</v>
+        <v>0.321848216838</v>
       </c>
       <c r="S3">
-        <v>0.005863566226394946</v>
+        <v>0.2017791896511098</v>
       </c>
       <c r="T3">
-        <v>0.005863566226394947</v>
+        <v>0.2017791896511098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2889726666666667</v>
+        <v>0.09405766666666666</v>
       </c>
       <c r="H4">
-        <v>0.866918</v>
+        <v>0.282173</v>
       </c>
       <c r="I4">
-        <v>0.173426471023637</v>
+        <v>0.203423347045177</v>
       </c>
       <c r="J4">
-        <v>0.173426471023637</v>
+        <v>0.203423347045177</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.380202</v>
+        <v>0.002883666666666667</v>
       </c>
       <c r="N4">
-        <v>1.140606</v>
+        <v>0.008651000000000001</v>
       </c>
       <c r="O4">
-        <v>0.9924725279028103</v>
+        <v>0.007523262892425429</v>
       </c>
       <c r="P4">
-        <v>0.9924725279028103</v>
+        <v>0.00752326289242543</v>
       </c>
       <c r="Q4">
-        <v>0.109867985812</v>
+        <v>0.0002712309581111111</v>
       </c>
       <c r="R4">
-        <v>0.9888118723079999</v>
+        <v>0.002441078623</v>
       </c>
       <c r="S4">
-        <v>0.1721210081020925</v>
+        <v>0.00153040731827796</v>
       </c>
       <c r="T4">
-        <v>0.1721210081020925</v>
+        <v>0.001530407318277961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>0.866918</v>
       </c>
       <c r="I5">
-        <v>0.173426471023637</v>
+        <v>0.624976029505696</v>
       </c>
       <c r="J5">
-        <v>0.173426471023637</v>
+        <v>0.6249760295056961</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.002883666666666667</v>
+        <v>0.0002143333333333333</v>
       </c>
       <c r="N5">
-        <v>0.008651000000000001</v>
+        <v>0.000643</v>
       </c>
       <c r="O5">
-        <v>0.00752747209718975</v>
+        <v>0.0005591790590486129</v>
       </c>
       <c r="P5">
-        <v>0.007527472097189751</v>
+        <v>0.0005591790590486129</v>
       </c>
       <c r="Q5">
-        <v>0.0008333008464444444</v>
+        <v>6.193647488888889E-05</v>
       </c>
       <c r="R5">
-        <v>0.007499707618000001</v>
+        <v>0.000557428274</v>
       </c>
       <c r="S5">
-        <v>0.001305462921544514</v>
+        <v>0.0003494735081069332</v>
       </c>
       <c r="T5">
-        <v>0.001305462921544514</v>
+        <v>0.0003494735081069333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07934366666666666</v>
+        <v>0.2889726666666667</v>
       </c>
       <c r="H6">
-        <v>0.238031</v>
+        <v>0.866918</v>
       </c>
       <c r="I6">
-        <v>0.04761797116247135</v>
+        <v>0.624976029505696</v>
       </c>
       <c r="J6">
-        <v>0.04761797116247136</v>
+        <v>0.6249760295056961</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>1.140606</v>
       </c>
       <c r="O6">
-        <v>0.9924725279028103</v>
+        <v>0.991917558048526</v>
       </c>
       <c r="P6">
-        <v>0.9924725279028103</v>
+        <v>0.991917558048526</v>
       </c>
       <c r="Q6">
-        <v>0.030166620754</v>
+        <v>0.109867985812</v>
       </c>
       <c r="R6">
-        <v>0.271499586786</v>
+        <v>0.9888118723079999</v>
       </c>
       <c r="S6">
-        <v>0.04725952821322106</v>
+        <v>0.6199246970261535</v>
       </c>
       <c r="T6">
-        <v>0.04725952821322107</v>
+        <v>0.6199246970261536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07934366666666666</v>
+        <v>0.2889726666666667</v>
       </c>
       <c r="H7">
-        <v>0.238031</v>
+        <v>0.866918</v>
       </c>
       <c r="I7">
-        <v>0.04761797116247135</v>
+        <v>0.624976029505696</v>
       </c>
       <c r="J7">
-        <v>0.04761797116247136</v>
+        <v>0.6249760295056961</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,208 @@
         <v>0.008651000000000001</v>
       </c>
       <c r="O7">
-        <v>0.00752747209718975</v>
+        <v>0.007523262892425429</v>
       </c>
       <c r="P7">
-        <v>0.007527472097189751</v>
+        <v>0.00752326289242543</v>
       </c>
       <c r="Q7">
+        <v>0.0008333008464444444</v>
+      </c>
+      <c r="R7">
+        <v>0.007499707618000001</v>
+      </c>
+      <c r="S7">
+        <v>0.004701858971435583</v>
+      </c>
+      <c r="T7">
+        <v>0.004701858971435584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.07934366666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.238031</v>
+      </c>
+      <c r="I8">
+        <v>0.171600623449127</v>
+      </c>
+      <c r="J8">
+        <v>0.1716006234491271</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0002143333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.000643</v>
+      </c>
+      <c r="O8">
+        <v>0.0005591790590486129</v>
+      </c>
+      <c r="P8">
+        <v>0.0005591790590486129</v>
+      </c>
+      <c r="Q8">
+        <v>1.700599255555556E-05</v>
+      </c>
+      <c r="R8">
+        <v>0.000153053933</v>
+      </c>
+      <c r="S8">
+        <v>9.59554751524382E-05</v>
+      </c>
+      <c r="T8">
+        <v>9.595547515243823E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.07934366666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.238031</v>
+      </c>
+      <c r="I9">
+        <v>0.171600623449127</v>
+      </c>
+      <c r="J9">
+        <v>0.1716006234491271</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.380202</v>
+      </c>
+      <c r="N9">
+        <v>1.140606</v>
+      </c>
+      <c r="O9">
+        <v>0.991917558048526</v>
+      </c>
+      <c r="P9">
+        <v>0.991917558048526</v>
+      </c>
+      <c r="Q9">
+        <v>0.030166620754</v>
+      </c>
+      <c r="R9">
+        <v>0.271499586786</v>
+      </c>
+      <c r="S9">
+        <v>0.1702136713712627</v>
+      </c>
+      <c r="T9">
+        <v>0.1702136713712628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.07934366666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.238031</v>
+      </c>
+      <c r="I10">
+        <v>0.171600623449127</v>
+      </c>
+      <c r="J10">
+        <v>0.1716006234491271</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.002883666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.008651000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.007523262892425429</v>
+      </c>
+      <c r="P10">
+        <v>0.00752326289242543</v>
+      </c>
+      <c r="Q10">
         <v>0.0002288006867777778</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>0.002059206181</v>
       </c>
-      <c r="S7">
-        <v>0.0003584429492502893</v>
-      </c>
-      <c r="T7">
-        <v>0.0003584429492502893</v>
+      <c r="S10">
+        <v>0.001290996602711886</v>
+      </c>
+      <c r="T10">
+        <v>0.001290996602711887</v>
       </c>
     </row>
   </sheetData>
